--- a/results/mp/tinybert/dilemma/confidence/42/stop-words-topk-masking-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/42/stop-words-topk-masking-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="90">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,105 +40,111 @@
     <t>name</t>
   </si>
   <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
     <t>creepy</t>
   </si>
   <si>
-    <t>horrible</t>
+    <t>insane</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>fucking</t>
   </si>
   <si>
     <t>worst</t>
   </si>
   <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
     <t>dumb</t>
   </si>
   <si>
+    <t>boring</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>shocking</t>
+  </si>
+  <si>
     <t>disturbing</t>
   </si>
   <si>
-    <t>insane</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>boring</t>
-  </si>
-  <si>
-    <t>fucking</t>
+    <t>guilty</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>sorry</t>
   </si>
   <si>
     <t>addicted</t>
   </si>
   <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>fucked</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
     <t>weird</t>
   </si>
   <si>
-    <t>destroying</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>fucked</t>
-  </si>
-  <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>stupid</t>
+    <t>shit</t>
   </si>
   <si>
     <t>dark</t>
   </si>
   <si>
-    <t>sorry</t>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>serious</t>
   </si>
   <si>
     <t>bad</t>
   </si>
   <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>least</t>
+    <t>seriously</t>
   </si>
   <si>
     <t>black</t>
   </si>
   <si>
-    <t>serious</t>
-  </si>
-  <si>
     <t>fake</t>
   </si>
   <si>
@@ -163,109 +169,118 @@
     <t>interesting</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
+    <t>powerful</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>good</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
     <t>first</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>worth</t>
   </si>
   <si>
-    <t>powerful</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
     <t>wow</t>
   </si>
   <si>
+    <t>digital</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
     <t>social</t>
   </si>
   <si>
-    <t>new</t>
+    <t>live</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>whole</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>much</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>digital</t>
-  </si>
-  <si>
-    <t>real</t>
+    <t>ironic</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>recommend</t>
   </si>
   <si>
     <t>right</t>
   </si>
   <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>change</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
+    <t>netflix</t>
+  </si>
+  <si>
     <t>media</t>
   </si>
   <si>
-    <t>netflix</t>
-  </si>
-  <si>
     <t>twitter</t>
   </si>
   <si>
+    <t>watching</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>’</t>
+  </si>
+  <si>
     <t>dilemma</t>
   </si>
   <si>
-    <t>watch</t>
-  </si>
-  <si>
     <t>documentary</t>
   </si>
   <si>
-    <t>’</t>
-  </si>
-  <si>
     <t>…</t>
-  </si>
-  <si>
-    <t>watching</t>
   </si>
   <si>
     <t>positive</t>
@@ -626,7 +641,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q43"/>
+  <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -634,10 +649,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -698,10 +713,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -716,7 +731,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -766,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -795,13 +810,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9333333333333333</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="C5">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -813,10 +828,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K5">
         <v>0.9090909090909091</v>
@@ -845,13 +860,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9242424242424242</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C6">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="D6">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -863,10 +878,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K6">
         <v>0.9</v>
@@ -895,13 +910,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9230769230769231</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -916,16 +931,16 @@
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K7">
-        <v>0.84</v>
+        <v>0.9</v>
       </c>
       <c r="L7">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M7">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -937,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -945,13 +960,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9134615384615384</v>
+        <v>0.9</v>
       </c>
       <c r="C8">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="D8">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -963,19 +978,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K8">
-        <v>0.7192982456140351</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="L8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -987,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -995,13 +1010,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.9</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="C9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1016,16 +1031,16 @@
         <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K9">
-        <v>0.6896551724137931</v>
+        <v>0.7</v>
       </c>
       <c r="L9">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="M9">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1037,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1045,13 +1060,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8125</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="C10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="D10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1063,19 +1078,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K10">
-        <v>0.6533333333333333</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="L10">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="M10">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1087,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1095,13 +1110,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="C11">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D11">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1116,16 +1131,16 @@
         <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K11">
-        <v>0.6363636363636364</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L11">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M11">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1137,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1145,38 +1160,38 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C12">
+        <v>26</v>
+      </c>
+      <c r="D12">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>4</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="L12">
         <v>12</v>
       </c>
-      <c r="D12">
+      <c r="M12">
         <v>12</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>3</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K12">
-        <v>0.6153846153846154</v>
-      </c>
-      <c r="L12">
-        <v>8</v>
-      </c>
-      <c r="M12">
-        <v>8</v>
-      </c>
       <c r="N12">
         <v>1</v>
       </c>
@@ -1187,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1195,13 +1210,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7894736842105263</v>
+        <v>0.8</v>
       </c>
       <c r="C13">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D13">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1213,19 +1228,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K13">
-        <v>0.6111111111111112</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="L13">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="M13">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1237,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1245,13 +1260,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7777777777777778</v>
+        <v>0.75</v>
       </c>
       <c r="C14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1266,16 +1281,16 @@
         <v>2</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K14">
-        <v>0.6</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L14">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M14">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1287,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1298,10 +1313,10 @@
         <v>0.75</v>
       </c>
       <c r="C15">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D15">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1313,19 +1328,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K15">
-        <v>0.5666666666666667</v>
+        <v>0.6133333333333333</v>
       </c>
       <c r="L15">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="M15">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1337,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1345,13 +1360,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.75</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C16">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D16">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1363,19 +1378,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K16">
-        <v>0.5555555555555556</v>
+        <v>0.6</v>
       </c>
       <c r="L16">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="M16">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1387,7 +1402,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1395,13 +1410,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.7</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C17">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D17">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1413,19 +1428,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K17">
-        <v>0.5277777777777778</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L17">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="M17">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1437,7 +1452,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1445,13 +1460,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6923076923076923</v>
+        <v>0.6875</v>
       </c>
       <c r="C18">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D18">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1463,19 +1478,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K18">
-        <v>0.5263157894736842</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L18">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="M18">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1487,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1498,10 +1513,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="C19">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D19">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1513,19 +1528,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K19">
-        <v>0.5</v>
+        <v>0.4242424242424243</v>
       </c>
       <c r="L19">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="M19">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1537,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1545,13 +1560,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.65</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C20">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D20">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1563,19 +1578,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K20">
         <v>0.4166666666666667</v>
       </c>
       <c r="L20">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M20">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1587,7 +1602,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1595,13 +1610,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.6153846153846154</v>
+        <v>0.644927536231884</v>
       </c>
       <c r="C21">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="D21">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1613,19 +1628,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K21">
-        <v>0.2595628415300547</v>
+        <v>0.3541666666666667</v>
       </c>
       <c r="L21">
-        <v>285</v>
+        <v>17</v>
       </c>
       <c r="M21">
-        <v>285</v>
+        <v>17</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1637,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>813</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1645,13 +1660,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.6086956521739131</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="C22">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D22">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1663,19 +1678,19 @@
         <v>0</v>
       </c>
       <c r="H22">
+        <v>4</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K22">
+        <v>0.3214285714285715</v>
+      </c>
+      <c r="L22">
         <v>9</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K22">
-        <v>0.2542372881355932</v>
-      </c>
-      <c r="L22">
-        <v>15</v>
-      </c>
       <c r="M22">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1687,7 +1702,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>44</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1695,13 +1710,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5882352941176471</v>
+        <v>0.625</v>
       </c>
       <c r="C23">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D23">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1713,19 +1728,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K23">
-        <v>0.2461538461538462</v>
+        <v>0.3170731707317073</v>
       </c>
       <c r="L23">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M23">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1737,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>49</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1745,13 +1760,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5882352941176471</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="C24">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D24">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1763,19 +1778,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K24">
-        <v>0.2391304347826087</v>
+        <v>0.288135593220339</v>
       </c>
       <c r="L24">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="M24">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1787,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1795,13 +1810,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5869565217391305</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C25">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="D25">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1813,19 +1828,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K25">
-        <v>0.2142857142857143</v>
+        <v>0.261384335154827</v>
       </c>
       <c r="L25">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="M25">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1837,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>22</v>
+        <v>811</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1845,13 +1860,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5833333333333334</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="C26">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D26">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1863,19 +1878,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K26">
-        <v>0.2037037037037037</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="L26">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="M26">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1887,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>43</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1895,13 +1910,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.5714285714285714</v>
+        <v>0.55</v>
       </c>
       <c r="C27">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D27">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1913,19 +1928,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K27">
-        <v>0.1666666666666667</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="L27">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M27">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1937,7 +1952,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>45</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1945,38 +1960,38 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.5454545454545454</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="C28">
+        <v>19</v>
+      </c>
+      <c r="D28">
+        <v>19</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>16</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K28">
+        <v>0.2307692307692308</v>
+      </c>
+      <c r="L28">
         <v>6</v>
       </c>
-      <c r="D28">
+      <c r="M28">
         <v>6</v>
       </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>5</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K28">
-        <v>0.1647058823529412</v>
-      </c>
-      <c r="L28">
-        <v>14</v>
-      </c>
-      <c r="M28">
-        <v>14</v>
-      </c>
       <c r="N28">
         <v>1</v>
       </c>
@@ -1987,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>71</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1998,10 +2013,10 @@
         <v>0.5384615384615384</v>
       </c>
       <c r="C29">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D29">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2013,19 +2028,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K29">
-        <v>0.1549295774647887</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="L29">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M29">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2037,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>60</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2045,13 +2060,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.5142857142857142</v>
+        <v>0.5319148936170213</v>
       </c>
       <c r="C30">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D30">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2063,19 +2078,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K30">
-        <v>0.1463414634146341</v>
+        <v>0.2</v>
       </c>
       <c r="L30">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="M30">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2087,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>35</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2095,13 +2110,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.5106382978723404</v>
+        <v>0.5</v>
       </c>
       <c r="C31">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D31">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2113,19 +2128,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K31">
-        <v>0.14</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="L31">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M31">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2137,7 +2152,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>43</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2148,10 +2163,10 @@
         <v>0.5</v>
       </c>
       <c r="C32">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D32">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2163,19 +2178,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K32">
-        <v>0.1368421052631579</v>
+        <v>0.1639344262295082</v>
       </c>
       <c r="L32">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="M32">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2187,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>82</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2195,13 +2210,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.3684210526315789</v>
+        <v>0.5</v>
       </c>
       <c r="C33">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D33">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2216,16 +2231,16 @@
         <v>12</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K33">
-        <v>0.1147540983606557</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="L33">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="M33">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2237,7 +2252,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>54</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2245,7 +2260,7 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3571428571428572</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="C34">
         <v>10</v>
@@ -2263,19 +2278,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K34">
-        <v>0.1095890410958904</v>
+        <v>0.1549295774647887</v>
       </c>
       <c r="L34">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="M34">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2287,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2295,13 +2310,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.3333333333333333</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="C35">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D35">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2313,19 +2328,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K35">
-        <v>0.06174698795180723</v>
+        <v>0.1529411764705882</v>
       </c>
       <c r="L35">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M35">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2337,7 +2352,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>623</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2345,13 +2360,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.2051282051282051</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C36">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D36">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2363,19 +2378,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K36">
-        <v>0.05</v>
+        <v>0.1296296296296296</v>
       </c>
       <c r="L36">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="M36">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2387,7 +2402,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>513</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2395,31 +2410,31 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.03691275167785235</v>
+        <v>0.25</v>
       </c>
       <c r="C37">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D37">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E37">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="G37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>287</v>
+        <v>21</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K37">
-        <v>0.04379562043795621</v>
+        <v>0.0821917808219178</v>
       </c>
       <c r="L37">
         <v>6</v>
@@ -2437,21 +2452,45 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>131</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:17">
+      <c r="A38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38">
+        <v>0.2435897435897436</v>
+      </c>
+      <c r="C38">
+        <v>19</v>
+      </c>
+      <c r="D38">
+        <v>19</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>59</v>
+      </c>
       <c r="J38" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K38">
-        <v>0.03492063492063492</v>
+        <v>0.0537037037037037</v>
       </c>
       <c r="L38">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="M38">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2463,21 +2502,45 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>304</v>
+        <v>511</v>
       </c>
     </row>
     <row r="39" spans="1:17">
+      <c r="A39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39">
+        <v>0.0302013422818792</v>
+      </c>
+      <c r="C39">
+        <v>9</v>
+      </c>
+      <c r="D39">
+        <v>10</v>
+      </c>
+      <c r="E39">
+        <v>0.1</v>
+      </c>
+      <c r="F39">
+        <v>0.9</v>
+      </c>
+      <c r="G39" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>289</v>
+      </c>
       <c r="J39" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K39">
-        <v>0.03246753246753246</v>
+        <v>0.05271084337349398</v>
       </c>
       <c r="L39">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="M39">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2489,21 +2552,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>596</v>
+        <v>629</v>
       </c>
     </row>
     <row r="40" spans="1:17">
       <c r="J40" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K40">
-        <v>0.03180212014134275</v>
+        <v>0.05109489051094891</v>
       </c>
       <c r="L40">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M40">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2515,21 +2578,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>274</v>
+        <v>130</v>
       </c>
     </row>
     <row r="41" spans="1:17">
       <c r="J41" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K41">
-        <v>0.03072983354673495</v>
+        <v>0.04985337243401759</v>
       </c>
       <c r="L41">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="M41">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2541,21 +2604,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>757</v>
+        <v>324</v>
       </c>
     </row>
     <row r="42" spans="1:17">
       <c r="J42" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K42">
-        <v>0.02764976958525346</v>
+        <v>0.03896103896103896</v>
       </c>
       <c r="L42">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="M42">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2567,33 +2630,111 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>1688</v>
+        <v>592</v>
       </c>
     </row>
     <row r="43" spans="1:17">
       <c r="J43" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K43">
-        <v>0.02346041055718475</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="L43">
+        <v>30</v>
+      </c>
+      <c r="M43">
+        <v>31</v>
+      </c>
+      <c r="N43">
+        <v>0.97</v>
+      </c>
+      <c r="O43">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P43" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="J44" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K44">
+        <v>0.0380952380952381</v>
+      </c>
+      <c r="L44">
+        <v>12</v>
+      </c>
+      <c r="M44">
+        <v>12</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="J45" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K45">
+        <v>0.02826855123674912</v>
+      </c>
+      <c r="L45">
         <v>8</v>
       </c>
-      <c r="M43">
+      <c r="M45">
         <v>8</v>
       </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>333</v>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="J46" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K46">
+        <v>0.02131336405529954</v>
+      </c>
+      <c r="L46">
+        <v>37</v>
+      </c>
+      <c r="M46">
+        <v>37</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>1699</v>
       </c>
     </row>
   </sheetData>
